--- a/misc/Component properties.xlsx
+++ b/misc/Component properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogasimli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogasimli\Documents\GitHub\My Projects\HealthBarView\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>integer</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Property</t>
+  </si>
+  <si>
+    <t>Component</t>
   </si>
 </sst>
 </file>
@@ -207,13 +210,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,320 +536,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="b">
+      <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="D22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="C23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="D23" s="1">
         <v>4000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A27:C27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/misc/Component properties.xlsx
+++ b/misc/Component properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogasimli\Documents\GitHub\My Projects\HealthBarView\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogasimli\Documents\GitHub\Android\My Projects\HealthBarView\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,6 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$38</definedName>
     <definedName name="fraction">[1]Jobs!#REF!</definedName>
     <definedName name="max">[1]Jobs!#REF!</definedName>
     <definedName name="min">[1]Jobs!#REF!</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
   <si>
     <t>integer</t>
   </si>
@@ -48,24 +49,15 @@
     <t>hbv_animated</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>#7bfbaf</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>hbv_colorTo</t>
-  </si>
-  <si>
     <t>#ffc200</t>
   </si>
   <si>
-    <t>hbv_colorFrom</t>
-  </si>
-  <si>
     <t>Bar</t>
   </si>
   <si>
@@ -144,9 +136,6 @@
     <t>hbv_showValue</t>
   </si>
   <si>
-    <t>Poor,Below Average,Average,Above Average,Good,Excellent</t>
-  </si>
-  <si>
     <t>hbv_labels</t>
   </si>
   <si>
@@ -171,10 +160,189 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Property</t>
-  </si>
-  <si>
     <t>Component</t>
+  </si>
+  <si>
+    <t>MinValue</t>
+  </si>
+  <si>
+    <t>hbv_minValueTextColor</t>
+  </si>
+  <si>
+    <t>hbv_minValueTextSize</t>
+  </si>
+  <si>
+    <t>hbv_minValueFont</t>
+  </si>
+  <si>
+    <t>hbv_showMinValue</t>
+  </si>
+  <si>
+    <t>MaxValue</t>
+  </si>
+  <si>
+    <t>hbv_showMaxValue</t>
+  </si>
+  <si>
+    <t>hbv_maxValueTextColor</t>
+  </si>
+  <si>
+    <t>hbv_maxValueTextSize</t>
+  </si>
+  <si>
+    <t>hbv_maxValueFont</t>
+  </si>
+  <si>
+    <t>hbv_startColor</t>
+  </si>
+  <si>
+    <t>hbv_endColor</t>
+  </si>
+  <si>
+    <t>hbv_indicatorTopOverflow</t>
+  </si>
+  <si>
+    <t>hbv_indicatorBottomOverflow</t>
+  </si>
+  <si>
+    <t>5dp</t>
+  </si>
+  <si>
+    <t>hbv_labelsRange</t>
+  </si>
+  <si>
+    <t>XML Attribute</t>
+  </si>
+  <si>
+    <t>Java method</t>
+  </si>
+  <si>
+    <t>setShowMinValue(boolean showMinValue)</t>
+  </si>
+  <si>
+    <t>setAnimated(boolean animated)</t>
+  </si>
+  <si>
+    <t>setMinValueTextColor(int minValueTextColor)</t>
+  </si>
+  <si>
+    <t>hbv_minValueSuffix</t>
+  </si>
+  <si>
+    <t>hbv_minValueDecimalFormat</t>
+  </si>
+  <si>
+    <t>hbv_maxValueSuffix</t>
+  </si>
+  <si>
+    <t>hbv_maxValueDecimalFormat</t>
+  </si>
+  <si>
+    <t>setMinValueDecimalFormat(DecimalFormat minValueDecimalFormat)</t>
+  </si>
+  <si>
+    <t>setMinValueSuffix(String minValueSuffix)</t>
+  </si>
+  <si>
+    <t>setShowMaxValue(boolean showMaxValue)</t>
+  </si>
+  <si>
+    <t>setMaxValueTextColor(int maxValueTextColor)</t>
+  </si>
+  <si>
+    <t>setMaxValueSuffix(String maxValueSuffix)</t>
+  </si>
+  <si>
+    <t>setMaxValueDecimalFormat(DecimalFormat maxValueDecimalFormat)</t>
+  </si>
+  <si>
+    <t>setStrokeWidth(int strokeWidth)
+setStrokeWidth(float strokeWidth)</t>
+  </si>
+  <si>
+    <t>setStrokeColor(int strokeColor)</t>
+  </si>
+  <si>
+    <t>setStartColor(int startColor)</t>
+  </si>
+  <si>
+    <t>setEndColor(int endColor)</t>
+  </si>
+  <si>
+    <t>setIndicatorColor(int indicatorColor)</t>
+  </si>
+  <si>
+    <t>setShowValue(boolean showValue)</t>
+  </si>
+  <si>
+    <t>setValueTextColor(int valueTextColor)</t>
+  </si>
+  <si>
+    <t>setValueSuffix(String valueSuffix)</t>
+  </si>
+  <si>
+    <t>setValueDecimalFormat(DecimalFormat valueDecimalFormat)</t>
+  </si>
+  <si>
+    <t>setAnimationDuration(long animationDuration)</t>
+  </si>
+  <si>
+    <t>setShowLabel(boolean showLabel)</t>
+  </si>
+  <si>
+    <t>setLabelTextColor(int labelTextColor)</t>
+  </si>
+  <si>
+    <t>setLabelTextSize(int labelTextSize)
+setLabelTextSize(float labelTextSize)</t>
+  </si>
+  <si>
+    <t>setMinValue(double minValue)</t>
+  </si>
+  <si>
+    <t>setMaxValue(double maxValue)</t>
+  </si>
+  <si>
+    <t>setValue(double value)</t>
+  </si>
+  <si>
+    <t>setMinValueTextSize(int minValueTextSize); setMinValueTextSize(float minValueTextSize)</t>
+  </si>
+  <si>
+    <t>setMinValueFont(Typeface minValueFont); setMinValueFont(@FontRes int minValueFont)</t>
+  </si>
+  <si>
+    <t>setMaxValueTextSize(int maxValueTextSize); setMaxValueTextSize(float maxValueTextSize)</t>
+  </si>
+  <si>
+    <t>setMaxValueFont(Typeface maxValueFont); setMaxValueFont(@FontRes int maxValueFont)</t>
+  </si>
+  <si>
+    <t>setIndicatorWidth(int indicatorWidth); setIndicatorWidth(float indicatorWidth)</t>
+  </si>
+  <si>
+    <t>setIndicatorTopOverflow(int topOverflow); setIndicatorTopOverflow(float topOverflow)</t>
+  </si>
+  <si>
+    <t>setIndicatorBottomOverflow(int bottomOverflow); setIndicatorBottomOverflow(float bottomOverflow)</t>
+  </si>
+  <si>
+    <t>setValueTextSize(int valueTextSize); setValueTextSize(float valueTextSize)</t>
+  </si>
+  <si>
+    <t>setValueFont(Typeface valueFont); setValueFont(@FontRes int valueFont)</t>
+  </si>
+  <si>
+    <t>setLabels(String[] labels); setLabels(String labelsString, String regex)</t>
+  </si>
+  <si>
+    <t>setLabelsRange(double[] labelsRange); setLabelsRange(String labelsRangeString, String regex)</t>
+  </si>
+  <si>
+    <t>setLabelFont(Typeface labelFont); setLabelFont(@FontRes int labelFont)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A&amp;#124;B&amp;#124;C&amp;#124;D&amp;#124;E  </t>
   </si>
 </sst>
 </file>
@@ -210,10 +378,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,339 +710,662 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E35" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4000</v>
+      <c r="D37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E38"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
